--- a/biology/Zoologie/Dolichophis_caspius/Dolichophis_caspius.xlsx
+++ b/biology/Zoologie/Dolichophis_caspius/Dolichophis_caspius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolichophis caspius est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolichophis caspius est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Albanie ;
 en Bulgarie ;
 en Croatie ;
@@ -554,7 +568,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dolichophis caspius mesure jusqu'à 200 cm. Les écailles de son dos sont plus sombres sur leur pourtour qu'à leur centre. Ses flancs sont gris-brun avec des taches qui s'atténuent avec l'âge. Sa face ventrale est jaune clair ou blanche. Sa tête se distingue nettement du corps. Ses yeux présentent des pupilles rondes.
 Il s'agit d'un serpent aux mœurs essentiellement diurne et qui n'est pas venimeux bien que relativement agressif et prompt à mordre lorsqu'il est dérangé.
@@ -587,11 +603,13 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 février 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 février 2014) :
 Dolichophis caspius caspius (Gmelin, 1789)
-Dolichophis caspius eiselti (Zinner, 1972) - Rhodes[3]</t>
+Dolichophis caspius eiselti (Zinner, 1972) - Rhodes</t>
         </is>
       </c>
     </row>
@@ -619,7 +637,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gmelin, 1789 : Caroli a Linné Systema naturae. 13. ed., Tom 1 Pars 3. G. E. Beer, Lipsiae, p. 1033-1516.
 Zinner, 1972 : Systematics and evolution of the species group Coluber jugularis Linnaeus, 1758 - Coluber caspius Gmelin,  1789 (Reptilia, Serpentes). PhD thesis, Hebrew university, Jerusalem, p. 1-62 (texte intégral).</t>
